--- a/assets/documents/skus.xlsx
+++ b/assets/documents/skus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDEMY\Web Development\Luna Miller\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA6147-5048-4DEC-A0C0-A7C51454EAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7829B545-E50B-40B9-9934-0B7737705D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="4140" windowWidth="20895" windowHeight="15345" activeTab="1" xr2:uid="{B36824BC-0AD1-4245-B3A5-AB03BC04981A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{B36824BC-0AD1-4245-B3A5-AB03BC04981A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>ring-dn7</t>
   </si>
@@ -117,12 +117,6 @@
     <t>DEXORO</t>
   </si>
   <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>AVG WEIGHT</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -291,25 +285,172 @@
     <t>ANILLO DAMA NACIONAL # 73</t>
   </si>
   <si>
-    <t>PROVIDER</t>
-  </si>
-  <si>
     <t>earing-dn1</t>
   </si>
   <si>
     <t>ARRACADA NACIONAL #1</t>
   </si>
   <si>
-    <t>DEXPRP</t>
-  </si>
-  <si>
-    <t>2.5 cm</t>
-  </si>
-  <si>
-    <t>2.6 gr</t>
-  </si>
-  <si>
-    <t>DIAMETER</t>
+    <t>earing-dn2</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #2</t>
+  </si>
+  <si>
+    <t>DIAMETER (CM)</t>
+  </si>
+  <si>
+    <t>AVG WEIGHT (gr)</t>
+  </si>
+  <si>
+    <t>earing-dn3</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #3</t>
+  </si>
+  <si>
+    <t>earing-dn4</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #4</t>
+  </si>
+  <si>
+    <t>earing-dn5</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #5</t>
+  </si>
+  <si>
+    <t>earing-dn6</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #6</t>
+  </si>
+  <si>
+    <t>earing-dn7</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #7</t>
+  </si>
+  <si>
+    <t>earing-dn8</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #8</t>
+  </si>
+  <si>
+    <t>earing-dn9</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #9</t>
+  </si>
+  <si>
+    <t>earing-dn10</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #10</t>
+  </si>
+  <si>
+    <t>earing-dn11</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #11</t>
+  </si>
+  <si>
+    <t>earing-dn12</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #12</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #13</t>
+  </si>
+  <si>
+    <t>earing-dn14</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #14</t>
+  </si>
+  <si>
+    <t>earing-dn15</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #15</t>
+  </si>
+  <si>
+    <t>earing-dn25</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #25</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #27</t>
+  </si>
+  <si>
+    <t>earing-dn27-1</t>
+  </si>
+  <si>
+    <t>earing-dn27-2</t>
+  </si>
+  <si>
+    <t>earing-dn27-3</t>
+  </si>
+  <si>
+    <t>earing-dn27-4</t>
+  </si>
+  <si>
+    <t>earing-dn28</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #28</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #29</t>
+  </si>
+  <si>
+    <t>earing-dn29-1</t>
+  </si>
+  <si>
+    <t>earing-dn29-2</t>
+  </si>
+  <si>
+    <t>earing-dn29-3</t>
+  </si>
+  <si>
+    <t>earing-dn34</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #34</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #35</t>
+  </si>
+  <si>
+    <t>earing-dn35-1</t>
+  </si>
+  <si>
+    <t>earing-dn35-2</t>
+  </si>
+  <si>
+    <t>earing-dn36</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #36</t>
+  </si>
+  <si>
+    <t>earing-dn38-1</t>
+  </si>
+  <si>
+    <t>earing-dn38-2</t>
+  </si>
+  <si>
+    <t>ARRACADA NACIONAL #38</t>
+  </si>
+  <si>
+    <t>earing-dn13-1</t>
+  </si>
+  <si>
+    <t>earing-dn13-2</t>
   </si>
 </sst>
 </file>
@@ -687,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC30B50-003D-4246-9472-2A9376818295}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,27 +839,25 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -728,8 +867,11 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -739,8 +881,11 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -750,8 +895,11 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -761,8 +909,11 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -772,8 +923,11 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -783,8 +937,11 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -794,8 +951,11 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -805,8 +965,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -816,8 +979,11 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -827,8 +993,11 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -838,8 +1007,11 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -849,302 +1021,386 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
       <c r="C40" t="s">
         <v>25</v>
+      </c>
+      <c r="D40">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -1155,55 +1411,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE454F56-46EE-4BB8-8376-C59F3B161F7D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2.7</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1.7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>3.4</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>3.4</v>
+      </c>
+      <c r="E15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>2.8</v>
+      </c>
+      <c r="E16">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1.7</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>1.8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>3.5</v>
+      </c>
+      <c r="E21">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+      <c r="E23">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>7.6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>7.1</v>
+      </c>
+      <c r="E28">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>5.7</v>
+      </c>
+      <c r="E29">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>1.7</v>
+      </c>
+      <c r="E30">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>7.1</v>
+      </c>
+      <c r="E31">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>5.7</v>
+      </c>
+      <c r="E32">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>